--- a/va_facility_data_2025-02-20/Colonel Demas T. Craw VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Colonel%20Demas%20T.%20Craw%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Colonel Demas T. Craw VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Colonel%20Demas%20T.%20Craw%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R2e74269a16f649fca236aa814a32d42a"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R7bc424e89cc34708b2d8b9218fee4b63"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R21bf1cdd3ecd40faaba8fe3f5265402d"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R3134f5cd47b048838c6eea80dce06b9d"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R2796a52552564bbfa3a5ea0722731bbe"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rae73ae7637c94b258c7c55acef07bed7"/>
   </x:sheets>
 </x:workbook>
 </file>
